--- a/df_final.xlsx
+++ b/df_final.xlsx
@@ -496,47 +496,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>106.9000</t>
+          <t>107.9000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107.8000</t>
+          <t>110.8500</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>106.3000</t>
+          <t>107.9000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>107.6000</t>
+          <t>110.3000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1024729</t>
+          <t>2119800</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>106.8000</t>
+          <t>107.9000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8000</t>
+          <t>2.4000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.7491%</t>
+          <t>2.2243%</t>
         </is>
       </c>
     </row>
@@ -551,47 +551,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1257.4000</t>
+          <t>1267.0000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1276.5500</t>
+          <t>1271.0500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1257.4000</t>
+          <t>1251.2500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>1256.7000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9690</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>1269.5000</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>13099</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-04-28</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1248.7000</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20.8000</t>
+          <t>-12.8000</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.6657%</t>
+          <t>-1.0083%</t>
         </is>
       </c>
     </row>
@@ -606,47 +606,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.5400</t>
+          <t>15.7000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.6900</t>
+          <t>16.1000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.5100</t>
+          <t>15.7000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.6100</t>
+          <t>15.9600</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10308986</t>
+          <t>25248559</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15.5000</t>
+          <t>15.6800</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1100</t>
+          <t>0.2800</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.7097%</t>
+          <t>1.7857%</t>
         </is>
       </c>
     </row>
@@ -661,47 +661,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>58.8800</t>
+          <t>64.0000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>59.8300</t>
+          <t>65.2000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.8800</t>
+          <t>63.0000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.4400</t>
+          <t>63.8400</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1997257</t>
+          <t>13898649</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>58.8800</t>
+          <t>61.5700</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5600</t>
+          <t>2.2700</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.9511%</t>
+          <t>3.6869%</t>
         </is>
       </c>
     </row>
